--- a/new_products_cleaned12muza.xlsx
+++ b/new_products_cleaned12muza.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D101FC2-4AE1-4CF9-979C-5677FFCB93F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\project_123\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>sku</t>
   </si>
@@ -42,12 +46,6 @@
     <t>SHAN_ZAFRANI_GARAM_MASALA_50G</t>
   </si>
   <si>
-    <t>shan_zafrani_garam_masala_50g</t>
-  </si>
-  <si>
-    <t>SHAN__KARAHI_FRY_GOSHAT_MASALA50_G</t>
-  </si>
-  <si>
     <t>shan__karahi_fry_goshat_masala50_g</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
     <t>baisan_half_1_2kg</t>
   </si>
   <si>
-    <t>SHAN__KORMA_MASALA_50G</t>
-  </si>
-  <si>
     <t>shan__korma_masala_50g</t>
   </si>
   <si>
@@ -69,50 +64,14 @@
     <t>shan__nihari_masala_50g</t>
   </si>
   <si>
-    <t>NATIONAL__GARLIC_POWDER_50G</t>
-  </si>
-  <si>
-    <t>national__garlic_powder_50g</t>
-  </si>
-  <si>
-    <t>NATIONAL_GARAM_MASALA_50G</t>
-  </si>
-  <si>
-    <t>national_garam_masala_50g</t>
-  </si>
-  <si>
-    <t>SHAN__SEEKH_KABAB_MASALA_50G</t>
-  </si>
-  <si>
-    <t>shan__seekh_kabab_masala_50g</t>
-  </si>
-  <si>
-    <t>SHAN__ACHAR_GHOST_50G</t>
-  </si>
-  <si>
-    <t>shan__achar_ghost_50g</t>
-  </si>
-  <si>
-    <t>SHAN_CHAT_MASALA_HARD_50G</t>
-  </si>
-  <si>
-    <t>shan_chat_masala_hard_50g</t>
-  </si>
-  <si>
-    <t>apple_airpod</t>
-  </si>
-  <si>
-    <t>samsung_airbuds</t>
-  </si>
-  <si>
-    <t>samsung_smartwatch</t>
+    <t>shan_zafrani_garam_masala_50g.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,9 +186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,20 +431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,99 +452,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/new_products_cleaned12muza.xlsx
+++ b/new_products_cleaned12muza.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>sku</t>
   </si>
@@ -49,22 +49,46 @@
     <t>shan__karahi_fry_goshat_masala50_g</t>
   </si>
   <si>
-    <t>BAISAN_HALF_1_2KG</t>
-  </si>
-  <si>
     <t>baisan_half_1_2kg</t>
   </si>
   <si>
+    <t>SHAN__KORMA_MASALA_50G</t>
+  </si>
+  <si>
     <t>shan__korma_masala_50g</t>
   </si>
   <si>
     <t>SHAN__NIHARI_MASALA_50G</t>
   </si>
   <si>
-    <t>shan__nihari_masala_50g</t>
+    <t>NATIONAL__GARLIC_POWDER_50G</t>
+  </si>
+  <si>
+    <t>national__garlic_powder_50g</t>
+  </si>
+  <si>
+    <t>NATIONAL_GARAM_MASALA_50G</t>
+  </si>
+  <si>
+    <t>national_garam_masala_50g</t>
+  </si>
+  <si>
+    <t>shan__seekh_kabab_masala_50g</t>
+  </si>
+  <si>
+    <t>SHAN__ACHAR_GHOST_50G</t>
+  </si>
+  <si>
+    <t>SHAN_CHAT_MASALA_HARD_50G</t>
+  </si>
+  <si>
+    <t>shan_chat_masala_hard_50g</t>
   </si>
   <si>
     <t>shan_zafrani_garam_masala_50g.jpg</t>
+  </si>
+  <si>
+    <t>BAISAN_FLOUR_HALF_1_2KG</t>
   </si>
 </sst>
 </file>
@@ -432,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -467,13 +491,16 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -482,8 +509,39 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/new_products_cleaned12muza.xlsx
+++ b/new_products_cleaned12muza.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sku</t>
   </si>
@@ -46,49 +46,19 @@
     <t>SHAN_ZAFRANI_GARAM_MASALA_50G</t>
   </si>
   <si>
+    <t>SHAN__KARAHI_FRY_GOSHAT_MASALA50_G</t>
+  </si>
+  <si>
     <t>shan__karahi_fry_goshat_masala50_g</t>
   </si>
   <si>
-    <t>baisan_half_1_2kg</t>
-  </si>
-  <si>
-    <t>SHAN__KORMA_MASALA_50G</t>
-  </si>
-  <si>
-    <t>shan__korma_masala_50g</t>
-  </si>
-  <si>
-    <t>SHAN__NIHARI_MASALA_50G</t>
-  </si>
-  <si>
-    <t>NATIONAL__GARLIC_POWDER_50G</t>
-  </si>
-  <si>
-    <t>national__garlic_powder_50g</t>
-  </si>
-  <si>
-    <t>NATIONAL_GARAM_MASALA_50G</t>
-  </si>
-  <si>
-    <t>national_garam_masala_50g</t>
-  </si>
-  <si>
-    <t>shan__seekh_kabab_masala_50g</t>
-  </si>
-  <si>
-    <t>SHAN__ACHAR_GHOST_50G</t>
-  </si>
-  <si>
-    <t>SHAN_CHAT_MASALA_HARD_50G</t>
-  </si>
-  <si>
-    <t>shan_chat_masala_hard_50g</t>
-  </si>
-  <si>
     <t>shan_zafrani_garam_masala_50g.jpg</t>
   </si>
   <si>
-    <t>BAISAN_FLOUR_HALF_1_2KG</t>
+    <t>Men_Black_Sports_Walking_Shoes</t>
+  </si>
+  <si>
+    <t>shoes</t>
   </si>
 </sst>
 </file>
@@ -456,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,67 +451,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/new_products_cleaned12muza.xlsx
+++ b/new_products_cleaned12muza.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>sku</t>
   </si>
@@ -52,13 +52,55 @@
     <t>shan__karahi_fry_goshat_masala50_g</t>
   </si>
   <si>
+    <t>baisan_half_1_2kg</t>
+  </si>
+  <si>
+    <t>SHAN__KORMA_MASALA_50G</t>
+  </si>
+  <si>
+    <t>shan__korma_masala_50g</t>
+  </si>
+  <si>
+    <t>SHAN__NIHARI_MASALA_50G</t>
+  </si>
+  <si>
+    <t>shan__nihari_masala_50g</t>
+  </si>
+  <si>
+    <t>NATIONAL__GARLIC_POWDER_50G</t>
+  </si>
+  <si>
+    <t>national__garlic_powder_50g</t>
+  </si>
+  <si>
+    <t>NATIONAL_GARAM_MASALA_50G</t>
+  </si>
+  <si>
+    <t>national_garam_masala_50g</t>
+  </si>
+  <si>
+    <t>SHAN__SEEKH_KABAB_MASALA_50G</t>
+  </si>
+  <si>
+    <t>shan__seekh_kabab_masala_50g</t>
+  </si>
+  <si>
+    <t>SHAN__ACHAR_GHOST_50G</t>
+  </si>
+  <si>
+    <t>shan__achar_ghost_50g</t>
+  </si>
+  <si>
+    <t>SHAN_CHAT_MASALA_HARD_50G</t>
+  </si>
+  <si>
+    <t>shan_chat_masala_hard_50g</t>
+  </si>
+  <si>
     <t>shan_zafrani_garam_masala_50g.jpg</t>
   </si>
   <si>
-    <t>Men_Black_Sports_Walking_Shoes</t>
-  </si>
-  <si>
-    <t>shoes</t>
+    <t>BAISAN_FLOUR_HALF_1_2KG</t>
   </si>
 </sst>
 </file>
@@ -426,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -464,10 +506,66 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/new_products_cleaned12muza.xlsx
+++ b/new_products_cleaned12muza.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sku</t>
   </si>
@@ -52,55 +52,14 @@
     <t>shan__karahi_fry_goshat_masala50_g</t>
   </si>
   <si>
-    <t>baisan_half_1_2kg</t>
-  </si>
-  <si>
-    <t>SHAN__KORMA_MASALA_50G</t>
-  </si>
-  <si>
-    <t>shan__korma_masala_50g</t>
-  </si>
-  <si>
-    <t>SHAN__NIHARI_MASALA_50G</t>
-  </si>
-  <si>
-    <t>shan__nihari_masala_50g</t>
-  </si>
-  <si>
-    <t>NATIONAL__GARLIC_POWDER_50G</t>
-  </si>
-  <si>
-    <t>national__garlic_powder_50g</t>
-  </si>
-  <si>
-    <t>NATIONAL_GARAM_MASALA_50G</t>
-  </si>
-  <si>
-    <t>national_garam_masala_50g</t>
-  </si>
-  <si>
-    <t>SHAN__SEEKH_KABAB_MASALA_50G</t>
-  </si>
-  <si>
-    <t>shan__seekh_kabab_masala_50g</t>
-  </si>
-  <si>
-    <t>SHAN__ACHAR_GHOST_50G</t>
-  </si>
-  <si>
-    <t>shan__achar_ghost_50g</t>
-  </si>
-  <si>
-    <t>SHAN_CHAT_MASALA_HARD_50G</t>
-  </si>
-  <si>
-    <t>shan_chat_masala_hard_50g</t>
-  </si>
-  <si>
     <t>shan_zafrani_garam_masala_50g.jpg</t>
   </si>
   <si>
-    <t>BAISAN_FLOUR_HALF_1_2KG</t>
+    <t xml:space="preserve">Men_Black_Sports_Walking_Shoes
+</t>
+  </si>
+  <si>
+    <t>shoes</t>
   </si>
 </sst>
 </file>
@@ -159,10 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -504,68 +466,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/new_products_cleaned12muza.xlsx
+++ b/new_products_cleaned12muza.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>sku</t>
   </si>
@@ -49,17 +49,8 @@
     <t>SHAN__KARAHI_FRY_GOSHAT_MASALA50_G</t>
   </si>
   <si>
-    <t>shan__karahi_fry_goshat_masala50_g</t>
-  </si>
-  <si>
-    <t>shan_zafrani_garam_masala_50g.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Men_Black_Sports_Walking_Shoes
 </t>
-  </si>
-  <si>
-    <t>shoes</t>
   </si>
 </sst>
 </file>
@@ -433,7 +424,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,24 +445,15 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
